--- a/data/trans_orig/P14C28-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C28-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{56A349B2-9433-4AF2-A855-E9ACD4F58AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C19676D-AA37-4209-8054-51D49EA6B865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{81B6C53E-1EEA-4544-8D26-E1D71B6C93A7}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05D2747C-9983-4E62-B20E-505FB3CFD75B}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C946B0-C165-4EBC-887E-75684530354D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77334625-72FD-4999-AEAC-03EF39006181}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C28-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C28-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C19676D-AA37-4209-8054-51D49EA6B865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E4A36E-A892-48C5-A711-6F9E6200DD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{05D2747C-9983-4E62-B20E-505FB3CFD75B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{85F0242F-C829-40C7-8DCE-582C946CAAAF}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
-  <si>
-    <t>Población según el tiempo de diagnóstico del artritis en 2015 (Tasa respuesta: 6,06%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="121">
+  <si>
+    <t>Población según el tiempo de diagnóstico del artritis en 2016 (Tasa respuesta: 6,06%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>74,85%</t>
   </si>
   <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
   </si>
   <si>
     <t>81,12%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
   </si>
   <si>
     <t>79,75%</t>
   </si>
   <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>23,58%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
   </si>
   <si>
     <t>15,86%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,25 +137,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,03%</t>
+    <t>8,11%</t>
   </si>
   <si>
     <t>5,19%</t>
   </si>
   <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
   </si>
   <si>
     <t>4,4%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,55 +167,55 @@
     <t>67,36%</t>
   </si>
   <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
   </si>
   <si>
     <t>69,93%</t>
   </si>
   <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
   </si>
   <si>
     <t>69,11%</t>
   </si>
   <si>
-    <t>61,36%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
   </si>
   <si>
     <t>26,32%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
   </si>
   <si>
     <t>27,05%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
   </si>
   <si>
     <t>26,81%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>35,38%</t>
   </si>
   <si>
     <t>6,32%</t>
@@ -224,25 +224,25 @@
     <t>1,88%</t>
   </si>
   <si>
-    <t>17,21%</t>
+    <t>16,53%</t>
   </si>
   <si>
     <t>3,02%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -251,7 +251,7 @@
     <t>78,37%</t>
   </si>
   <si>
-    <t>35,05%</t>
+    <t>35,8%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -260,103 +260,103 @@
     <t>70,88%</t>
   </si>
   <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
   <si>
     <t>73,56%</t>
   </si>
   <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>88,48%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>57,53%</t>
+    <t>51,16%</t>
   </si>
   <si>
     <t>18,35%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
   </si>
   <si>
     <t>15,58%</t>
   </si>
   <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>52,34%</t>
+    <t>52,41%</t>
   </si>
   <si>
     <t>10,77%</t>
   </si>
   <si>
-    <t>44,84%</t>
+    <t>38,99%</t>
   </si>
   <si>
     <t>10,85%</t>
   </si>
   <si>
-    <t>35,17%</t>
+    <t>34,28%</t>
   </si>
   <si>
     <t>72,01%</t>
   </si>
   <si>
-    <t>63,01%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
   </si>
   <si>
     <t>77,05%</t>
   </si>
   <si>
-    <t>71,48%</t>
-  </si>
-  <si>
-    <t>81,73%</t>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
   </si>
   <si>
     <t>75,73%</t>
   </si>
   <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
   </si>
   <si>
     <t>18,16%</t>
   </si>
   <si>
-    <t>13,91%</t>
+    <t>14,07%</t>
   </si>
   <si>
     <t>22,87%</t>
@@ -365,34 +365,37 @@
     <t>19,6%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>9,38%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
   </si>
   <si>
     <t>4,67%</t>
   </si>
   <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77334625-72FD-4999-AEAC-03EF39006181}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F6A7F6-6886-4232-A9A3-9F97DA01BBF6}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1654,10 +1657,10 @@
         <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>13</v>
@@ -1666,13 +1669,13 @@
         <v>15420</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>18</v>
@@ -1681,13 +1684,13 @@
         <v>20363</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,7 +1746,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
